--- a/Documenten/PLANNING.xlsx
+++ b/Documenten/PLANNING.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="68">
   <si>
     <t>Planning</t>
   </si>
@@ -43,9 +43,6 @@
     <t>Einde Project</t>
   </si>
   <si>
-    <t>Definief einde van het project</t>
-  </si>
-  <si>
     <t>Einde van het project voor ons team</t>
   </si>
   <si>
@@ -139,9 +136,6 @@
     <t>UML en Ontwerp</t>
   </si>
   <si>
-    <t>Definief ontwerp vd applicatie</t>
-  </si>
-  <si>
     <t>Programmeren</t>
   </si>
   <si>
@@ -152,16 +146,85 @@
   </si>
   <si>
     <t>Jos</t>
+  </si>
+  <si>
+    <t>14-2-214</t>
+  </si>
+  <si>
+    <t>Done</t>
+  </si>
+  <si>
+    <t>false</t>
+  </si>
+  <si>
+    <t>true</t>
+  </si>
+  <si>
+    <t>Jos,Rik</t>
+  </si>
+  <si>
+    <t>Jos,Rik,Alex</t>
+  </si>
+  <si>
+    <t>Database</t>
+  </si>
+  <si>
+    <t>Het maken van de Database</t>
+  </si>
+  <si>
+    <t>in proces</t>
+  </si>
+  <si>
+    <t>Project dossier</t>
+  </si>
+  <si>
+    <t>Aanleggen nieuw projectdossier op papier</t>
+  </si>
+  <si>
+    <t>PVA</t>
+  </si>
+  <si>
+    <t>Maken van Plan van aanpak</t>
+  </si>
+  <si>
+    <t>Functioneel ontwerp</t>
+  </si>
+  <si>
+    <t>Techisch ontwerp</t>
+  </si>
+  <si>
+    <t>Maken van FO</t>
+  </si>
+  <si>
+    <t>Maken van TO</t>
+  </si>
+  <si>
+    <t>Definitieve ontwerpen van UML &amp; FO/TO</t>
+  </si>
+  <si>
+    <t>Iedereen,Jos</t>
+  </si>
+  <si>
+    <t>Evaluatie</t>
+  </si>
+  <si>
+    <t>Evaluatie van het project</t>
+  </si>
+  <si>
+    <t>Programmeren van het Adresboek©</t>
+  </si>
+  <si>
+    <t>* Langere termijn</t>
+  </si>
+  <si>
+    <t xml:space="preserve">* mondeling besproken </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="[$-413]d/mmm/yy;@"/>
-  </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -182,8 +245,16 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -192,18 +263,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF00B050"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -226,11 +291,42 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -242,52 +338,101 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="165" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standaard" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="3">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -587,337 +732,563 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I34"/>
+  <dimension ref="A1:I39"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C34" sqref="C34"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.140625" customWidth="1"/>
+    <col min="1" max="1" width="18.140625" style="15" customWidth="1"/>
     <col min="2" max="2" width="27.5703125" customWidth="1"/>
     <col min="3" max="3" width="54.7109375" customWidth="1"/>
     <col min="4" max="4" width="27.28515625" customWidth="1"/>
+    <col min="5" max="5" width="12.42578125" style="22" customWidth="1"/>
+    <col min="6" max="6" width="36.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
+      <c r="B1" s="24"/>
+      <c r="C1" s="24"/>
+      <c r="D1" s="25">
+        <f ca="1">TODAY()</f>
+        <v>41703</v>
+      </c>
+      <c r="E1" s="21"/>
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
       <c r="H1" s="2"/>
       <c r="I1" s="2"/>
     </row>
     <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="A2" s="6"/>
-      <c r="B2" s="6"/>
-      <c r="C2" s="6"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
+      <c r="A2" s="24"/>
+      <c r="B2" s="24"/>
+      <c r="C2" s="24"/>
+      <c r="D2" s="26"/>
+      <c r="E2" s="21"/>
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
       <c r="H2" s="2"/>
       <c r="I2" s="2"/>
     </row>
     <row r="3" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="A3" s="6"/>
-      <c r="B3" s="6"/>
-      <c r="C3" s="6"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
+      <c r="A3" s="24"/>
+      <c r="B3" s="24"/>
+      <c r="C3" s="24"/>
+      <c r="D3" s="27"/>
+      <c r="E3" s="21"/>
       <c r="F3" s="2"/>
       <c r="G3" s="2"/>
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="D4" s="18" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="5" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="10"/>
-      <c r="B5" s="11" t="s">
+      <c r="E4" s="18" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="12">
+        <v>41675</v>
+      </c>
+      <c r="B5" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="11">
+        <v>41675</v>
+      </c>
+      <c r="B6" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" s="8"/>
+      <c r="D6" s="8"/>
+      <c r="E6" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="11">
+        <v>41675</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="F7" s="9" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" s="12">
+        <v>41685</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" s="12">
+        <v>41685</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="13">
+        <v>41685</v>
+      </c>
+      <c r="B11" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="11"/>
-      <c r="D5" s="11"/>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="16">
-        <v>41675</v>
-      </c>
-      <c r="B6" s="17" t="s">
-        <v>4</v>
-      </c>
-      <c r="C6" s="17" t="s">
-        <v>5</v>
-      </c>
-      <c r="D6" s="17" t="s">
+      <c r="C11" s="6"/>
+      <c r="D11" s="6"/>
+      <c r="E11" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="13">
+        <v>41703</v>
+      </c>
+      <c r="B12" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="C12" s="6"/>
+      <c r="D12" s="6"/>
+      <c r="E12" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="13">
+        <v>41703</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="13">
+        <v>41703</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="F14" s="23" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="13">
+        <v>41717</v>
+      </c>
+      <c r="B15" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="C15" s="6"/>
+      <c r="D15" s="6"/>
+      <c r="E15" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="13">
+        <v>41717</v>
+      </c>
+      <c r="B16" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="C16" s="6"/>
+      <c r="D16" s="6"/>
+      <c r="E16" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="13">
+        <v>41717</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="13">
+        <v>41717</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="D18" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="13">
+        <v>41717</v>
+      </c>
+      <c r="B19" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="C19" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="D19" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="13">
+        <v>41717</v>
+      </c>
+      <c r="B20" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="C20" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="D20" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="F20" s="23" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="13">
+        <v>41717</v>
+      </c>
+      <c r="B21" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="C21" s="6"/>
+      <c r="D21" s="6"/>
+      <c r="E21" s="3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="13">
+        <v>41717</v>
+      </c>
+      <c r="B22" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="C22" s="6"/>
+      <c r="D22" s="6"/>
+      <c r="E22" s="3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="13"/>
+      <c r="B23" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="C23" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="D23" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="13">
+        <v>41718</v>
+      </c>
+      <c r="B24" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="C24" s="6"/>
+      <c r="D24" s="6"/>
+      <c r="E24" s="3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="13"/>
+      <c r="B25" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="C25" s="6"/>
+      <c r="D25" s="6"/>
+      <c r="E25" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="13"/>
+      <c r="B26" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="C26" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="D26" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="E26" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="13"/>
+      <c r="B27" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="C27" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="D27" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="E27" s="3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="13"/>
+      <c r="B28" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="C28" s="6"/>
+      <c r="D28" s="6"/>
+      <c r="E28" s="3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="13"/>
+      <c r="B29" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="C29" s="6"/>
+      <c r="D29" s="6"/>
+      <c r="E29" s="3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="13"/>
+      <c r="B30" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="C30" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="D30" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="E30" s="3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="13">
+        <v>41717</v>
+      </c>
+      <c r="B31" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C31" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D31" s="6" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="16"/>
-      <c r="B7" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="C7" s="17" t="s">
-        <v>26</v>
-      </c>
-      <c r="D7" s="17" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="16">
-        <v>41685</v>
-      </c>
-      <c r="B8" s="17" t="s">
-        <v>27</v>
-      </c>
-      <c r="C8" s="17" t="s">
-        <v>28</v>
-      </c>
-      <c r="D8" s="17" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="16"/>
-      <c r="B9" s="17" t="s">
-        <v>29</v>
-      </c>
-      <c r="C9" s="17" t="s">
-        <v>30</v>
-      </c>
-      <c r="D9" s="17" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="12"/>
-      <c r="B10" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="C10" s="13"/>
-      <c r="D10" s="13"/>
-    </row>
-    <row r="11" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="14"/>
-      <c r="B11" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="C11" s="15"/>
-      <c r="D11" s="15"/>
-    </row>
-    <row r="12" spans="1:9" s="21" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="19"/>
-      <c r="B12" s="20" t="s">
-        <v>34</v>
-      </c>
-      <c r="C12" s="20" t="s">
-        <v>35</v>
-      </c>
-      <c r="D12" s="20" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="12"/>
-      <c r="B13" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="C13" s="13"/>
-      <c r="D13" s="13"/>
-    </row>
-    <row r="14" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="14"/>
-      <c r="B14" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="C14" s="15"/>
-      <c r="D14" s="15"/>
-    </row>
-    <row r="15" spans="1:9" s="21" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="19"/>
-      <c r="B15" s="20" t="s">
-        <v>36</v>
-      </c>
-      <c r="C15" s="20" t="s">
-        <v>37</v>
-      </c>
-      <c r="D15" s="20"/>
-    </row>
-    <row r="16" spans="1:9" s="21" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="19"/>
-      <c r="B16" s="20" t="s">
-        <v>38</v>
-      </c>
-      <c r="C16" s="20" t="s">
-        <v>39</v>
-      </c>
-      <c r="D16" s="20"/>
-    </row>
-    <row r="17" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="12"/>
-      <c r="B17" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="C17" s="13"/>
-      <c r="D17" s="13"/>
-    </row>
-    <row r="18" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="14"/>
-      <c r="B18" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="C18" s="15"/>
-      <c r="D18" s="15"/>
-    </row>
-    <row r="19" spans="1:4" s="21" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="19"/>
-      <c r="B19" s="20" t="s">
-        <v>40</v>
-      </c>
-      <c r="C19" s="20" t="s">
-        <v>41</v>
-      </c>
-      <c r="D19" s="20"/>
-    </row>
-    <row r="20" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="12"/>
-      <c r="B20" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="C20" s="13"/>
-      <c r="D20" s="13"/>
-    </row>
-    <row r="21" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="14"/>
-      <c r="B21" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="C21" s="15"/>
-      <c r="D21" s="15"/>
-    </row>
-    <row r="22" spans="1:4" s="21" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="19"/>
-      <c r="B22" s="20" t="s">
-        <v>42</v>
-      </c>
-      <c r="C22" s="20"/>
-      <c r="D22" s="20"/>
-    </row>
-    <row r="23" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="12"/>
-      <c r="B23" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="C23" s="13"/>
-      <c r="D23" s="13"/>
-    </row>
-    <row r="24" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="14"/>
-      <c r="B24" s="15" t="s">
+      <c r="E31" s="3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="13"/>
+      <c r="B32" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="C24" s="15"/>
-      <c r="D24" s="15"/>
-    </row>
-    <row r="25" spans="1:4" s="21" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="19"/>
-      <c r="B25" s="20" t="s">
-        <v>43</v>
-      </c>
-      <c r="C25" s="20" t="s">
-        <v>44</v>
-      </c>
-      <c r="D25" s="20"/>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" s="16">
-        <v>41734</v>
-      </c>
-      <c r="B26" s="17" t="s">
-        <v>8</v>
-      </c>
-      <c r="C26" s="17" t="s">
-        <v>9</v>
-      </c>
-      <c r="D26" s="17" t="s">
+      <c r="C32" s="6"/>
+      <c r="D32" s="6"/>
+      <c r="E32" s="3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="13"/>
+      <c r="B33" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="C33" s="6"/>
+      <c r="D33" s="6"/>
+      <c r="E33" s="3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="13"/>
+      <c r="B34" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="C34" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="D34" s="6" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27" s="16">
-        <v>41726</v>
-      </c>
-      <c r="B27" s="17" t="s">
-        <v>8</v>
-      </c>
-      <c r="C27" s="17" t="s">
-        <v>10</v>
-      </c>
-      <c r="D27" s="17" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="12"/>
-      <c r="B28" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="C28" s="13"/>
-      <c r="D28" s="13"/>
-    </row>
-    <row r="29" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="14"/>
-      <c r="B29" s="15" t="s">
+      <c r="E34" s="3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="14"/>
+      <c r="B35" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="C29" s="15"/>
-      <c r="D29" s="15"/>
-    </row>
-    <row r="30" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="18"/>
-      <c r="B30" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="C30" s="18"/>
-      <c r="D30" s="18"/>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A33" s="4"/>
-      <c r="B33" s="1"/>
-      <c r="C33" s="1"/>
-      <c r="D33" s="1"/>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A34" s="4"/>
-      <c r="B34" s="1"/>
-      <c r="C34" s="1"/>
-      <c r="D34" s="1"/>
+      <c r="C35" s="10"/>
+      <c r="D35" s="10"/>
+      <c r="E35" s="3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A38" s="4"/>
+      <c r="B38" s="1"/>
+      <c r="C38" s="1"/>
+      <c r="D38" s="1"/>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A39" s="4"/>
+      <c r="B39" s="1"/>
+      <c r="C39" s="1"/>
+      <c r="D39" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="2">
     <mergeCell ref="A1:C3"/>
+    <mergeCell ref="D1:D3"/>
   </mergeCells>
+  <conditionalFormatting sqref="E5:E35">
+    <cfRule type="containsText" dxfId="2" priority="1" operator="containsText" text="in proces">
+      <formula>NOT(ISERROR(SEARCH("in proces",E5)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="1" priority="2" operator="containsText" text="true">
+      <formula>NOT(ISERROR(SEARCH("true",E5)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="0" priority="3" operator="containsText" text="false">
+      <formula>NOT(ISERROR(SEARCH("false",E5)))</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>

--- a/Documenten/PLANNING.xlsx
+++ b/Documenten/PLANNING.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="70">
   <si>
     <t>Planning</t>
   </si>
@@ -199,9 +199,6 @@
     <t>Maken van TO</t>
   </si>
   <si>
-    <t>Definitieve ontwerpen van UML &amp; FO/TO</t>
-  </si>
-  <si>
     <t>Iedereen,Jos</t>
   </si>
   <si>
@@ -218,6 +215,15 @@
   </si>
   <si>
     <t xml:space="preserve">* mondeling besproken </t>
+  </si>
+  <si>
+    <t>* komt in het FO / TO</t>
+  </si>
+  <si>
+    <t>Definitieve ontwerpen van UML &amp; FO/TO + PVA</t>
+  </si>
+  <si>
+    <t>* mondeling besproken (komt terug in FO)</t>
   </si>
 </sst>
 </file>
@@ -734,8 +740,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+    <sheetView tabSelected="1" topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -743,7 +749,7 @@
     <col min="1" max="1" width="18.140625" style="15" customWidth="1"/>
     <col min="2" max="2" width="27.5703125" customWidth="1"/>
     <col min="3" max="3" width="54.7109375" customWidth="1"/>
-    <col min="4" max="4" width="27.28515625" customWidth="1"/>
+    <col min="4" max="4" width="31" customWidth="1"/>
     <col min="5" max="5" width="12.42578125" style="22" customWidth="1"/>
     <col min="6" max="6" width="36.7109375" customWidth="1"/>
   </cols>
@@ -756,7 +762,7 @@
       <c r="C1" s="24"/>
       <c r="D1" s="25">
         <f ca="1">TODAY()</f>
-        <v>41703</v>
+        <v>41710</v>
       </c>
       <c r="E1" s="21"/>
       <c r="F1" s="2"/>
@@ -850,7 +856,7 @@
         <v>52</v>
       </c>
       <c r="F7" s="9" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
@@ -964,7 +970,7 @@
         <v>47</v>
       </c>
       <c r="F14" s="23" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="15" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.25">
@@ -1009,6 +1015,9 @@
       <c r="E17" s="3" t="s">
         <v>52</v>
       </c>
+      <c r="F17" s="23" t="s">
+        <v>67</v>
+      </c>
     </row>
     <row r="18" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="13">
@@ -1061,7 +1070,7 @@
         <v>47</v>
       </c>
       <c r="F20" s="23" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
     </row>
     <row r="21" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
@@ -1087,7 +1096,7 @@
       <c r="C22" s="6"/>
       <c r="D22" s="6"/>
       <c r="E22" s="3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="23" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
@@ -1096,13 +1105,13 @@
         <v>39</v>
       </c>
       <c r="C23" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="D23" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="D23" s="6" t="s">
-        <v>62</v>
-      </c>
       <c r="E23" s="3" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
     </row>
     <row r="24" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
@@ -1150,7 +1159,7 @@
         <v>40</v>
       </c>
       <c r="C27" s="6" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D27" s="6" t="s">
         <v>49</v>
@@ -1178,7 +1187,7 @@
       <c r="C29" s="6"/>
       <c r="D29" s="6"/>
       <c r="E29" s="3" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
     </row>
     <row r="30" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
@@ -1238,10 +1247,10 @@
     <row r="34" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A34" s="13"/>
       <c r="B34" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="C34" s="6" t="s">
         <v>63</v>
-      </c>
-      <c r="C34" s="6" t="s">
-        <v>64</v>
       </c>
       <c r="D34" s="6" t="s">
         <v>7</v>

--- a/Documenten/PLANNING.xlsx
+++ b/Documenten/PLANNING.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="71">
   <si>
     <t>Planning</t>
   </si>
@@ -224,6 +224,9 @@
   </si>
   <si>
     <t>* mondeling besproken (komt terug in FO)</t>
+  </si>
+  <si>
+    <t>* 14.10 - 14.25</t>
   </si>
 </sst>
 </file>
@@ -740,8 +743,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -853,7 +856,7 @@
         <v>7</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="F7" s="9" t="s">
         <v>65</v>
@@ -1033,7 +1036,7 @@
         <v>43</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
     </row>
     <row r="19" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
@@ -1207,7 +1210,7 @@
     </row>
     <row r="31" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" s="13">
-        <v>41717</v>
+        <v>41724</v>
       </c>
       <c r="B31" s="6" t="s">
         <v>8</v>
@@ -1220,6 +1223,9 @@
       </c>
       <c r="E31" s="3" t="s">
         <v>46</v>
+      </c>
+      <c r="F31" s="23" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="32" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">

--- a/Documenten/PLANNING.xlsx
+++ b/Documenten/PLANNING.xlsx
@@ -743,8 +743,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E33" sqref="E33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -765,7 +765,7 @@
       <c r="C1" s="24"/>
       <c r="D1" s="25">
         <f ca="1">TODAY()</f>
-        <v>41710</v>
+        <v>41717</v>
       </c>
       <c r="E1" s="21"/>
       <c r="F1" s="2"/>
@@ -1016,7 +1016,7 @@
         <v>48</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="F17" s="23" t="s">
         <v>67</v>
@@ -1053,7 +1053,7 @@
         <v>43</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
     </row>
     <row r="20" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
@@ -1086,7 +1086,7 @@
       <c r="C21" s="6"/>
       <c r="D21" s="6"/>
       <c r="E21" s="3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="22" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
@@ -1114,7 +1114,7 @@
         <v>61</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
     </row>
     <row r="24" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
@@ -1127,7 +1127,7 @@
       <c r="C24" s="6"/>
       <c r="D24" s="6"/>
       <c r="E24" s="3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="25" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
@@ -1168,7 +1168,7 @@
         <v>49</v>
       </c>
       <c r="E27" s="3" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
     </row>
     <row r="28" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
@@ -1179,7 +1179,7 @@
       <c r="C28" s="6"/>
       <c r="D28" s="6"/>
       <c r="E28" s="3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="29" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
@@ -1190,7 +1190,7 @@
       <c r="C29" s="6"/>
       <c r="D29" s="6"/>
       <c r="E29" s="3" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
     </row>
     <row r="30" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
@@ -1222,7 +1222,7 @@
         <v>7</v>
       </c>
       <c r="E31" s="3" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="F31" s="23" t="s">
         <v>70</v>

--- a/Documenten/PLANNING.xlsx
+++ b/Documenten/PLANNING.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
@@ -9,12 +9,12 @@
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="70">
   <si>
     <t>Planning</t>
   </si>
@@ -154,9 +154,6 @@
     <t>Done</t>
   </si>
   <si>
-    <t>false</t>
-  </si>
-  <si>
     <t>true</t>
   </si>
   <si>
@@ -172,9 +169,6 @@
     <t>Het maken van de Database</t>
   </si>
   <si>
-    <t>in proces</t>
-  </si>
-  <si>
     <t>Project dossier</t>
   </si>
   <si>
@@ -227,6 +221,9 @@
   </si>
   <si>
     <t>* 14.10 - 14.25</t>
+  </si>
+  <si>
+    <t>proces</t>
   </si>
 </sst>
 </file>
@@ -263,7 +260,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -273,6 +270,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFCCFF33"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -335,7 +338,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -393,6 +396,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -443,6 +449,11 @@
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFCCFF33"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -497,7 +508,7 @@
     </a:clrScheme>
     <a:fontScheme name="Kantoor">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -532,7 +543,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -743,8 +754,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E33" sqref="E33"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G30" sqref="G30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -758,14 +769,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="24"/>
-      <c r="C1" s="24"/>
-      <c r="D1" s="25">
+      <c r="B1" s="25"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="26">
         <f ca="1">TODAY()</f>
-        <v>41717</v>
+        <v>41724</v>
       </c>
       <c r="E1" s="21"/>
       <c r="F1" s="2"/>
@@ -774,10 +785,10 @@
       <c r="I1" s="2"/>
     </row>
     <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="A2" s="24"/>
-      <c r="B2" s="24"/>
-      <c r="C2" s="24"/>
-      <c r="D2" s="26"/>
+      <c r="A2" s="25"/>
+      <c r="B2" s="25"/>
+      <c r="C2" s="25"/>
+      <c r="D2" s="27"/>
       <c r="E2" s="21"/>
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
@@ -785,10 +796,10 @@
       <c r="I2" s="2"/>
     </row>
     <row r="3" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="A3" s="24"/>
-      <c r="B3" s="24"/>
-      <c r="C3" s="24"/>
-      <c r="D3" s="27"/>
+      <c r="A3" s="25"/>
+      <c r="B3" s="25"/>
+      <c r="C3" s="25"/>
+      <c r="D3" s="28"/>
       <c r="E3" s="21"/>
       <c r="F3" s="2"/>
       <c r="G3" s="2"/>
@@ -826,7 +837,7 @@
         <v>7</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="6" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
@@ -839,7 +850,7 @@
       <c r="C6" s="8"/>
       <c r="D6" s="8"/>
       <c r="E6" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="7" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
@@ -847,19 +858,19 @@
         <v>41675</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D7" s="8" t="s">
         <v>7</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F7" s="9" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
@@ -876,7 +887,7 @@
         <v>30</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
@@ -893,7 +904,7 @@
         <v>31</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
@@ -910,7 +921,7 @@
         <v>32</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="11" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.25">
@@ -923,7 +934,7 @@
       <c r="C11" s="6"/>
       <c r="D11" s="6"/>
       <c r="E11" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="12" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.25">
@@ -936,7 +947,7 @@
       <c r="C12" s="6"/>
       <c r="D12" s="6"/>
       <c r="E12" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="13" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.25">
@@ -944,16 +955,16 @@
         <v>41703</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D13" s="6" t="s">
         <v>43</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="14" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.25">
@@ -970,10 +981,10 @@
         <v>43</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F14" s="23" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="15" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.25">
@@ -986,7 +997,7 @@
       <c r="C15" s="6"/>
       <c r="D15" s="6"/>
       <c r="E15" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="16" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.25">
@@ -999,7 +1010,7 @@
       <c r="C16" s="6"/>
       <c r="D16" s="6"/>
       <c r="E16" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="17" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
@@ -1013,13 +1024,13 @@
         <v>36</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F17" s="23" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="18" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
@@ -1027,16 +1038,16 @@
         <v>41717</v>
       </c>
       <c r="B18" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="C18" s="6" t="s">
         <v>57</v>
-      </c>
-      <c r="C18" s="6" t="s">
-        <v>59</v>
       </c>
       <c r="D18" s="6" t="s">
         <v>43</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="19" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
@@ -1044,16 +1055,16 @@
         <v>41717</v>
       </c>
       <c r="B19" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="C19" s="6" t="s">
         <v>58</v>
-      </c>
-      <c r="C19" s="6" t="s">
-        <v>60</v>
       </c>
       <c r="D19" s="6" t="s">
         <v>43</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="20" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
@@ -1067,13 +1078,13 @@
         <v>38</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F20" s="23" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="21" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
@@ -1086,7 +1097,7 @@
       <c r="C21" s="6"/>
       <c r="D21" s="6"/>
       <c r="E21" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="22" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
@@ -1099,7 +1110,7 @@
       <c r="C22" s="6"/>
       <c r="D22" s="6"/>
       <c r="E22" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="23" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
@@ -1108,13 +1119,13 @@
         <v>39</v>
       </c>
       <c r="C23" s="6" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D23" s="6" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="24" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
@@ -1127,7 +1138,7 @@
       <c r="C24" s="6"/>
       <c r="D24" s="6"/>
       <c r="E24" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="25" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
@@ -1138,22 +1149,22 @@
       <c r="C25" s="6"/>
       <c r="D25" s="6"/>
       <c r="E25" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="26" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="13"/>
       <c r="B26" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="C26" s="6" t="s">
         <v>50</v>
-      </c>
-      <c r="C26" s="6" t="s">
-        <v>51</v>
       </c>
       <c r="D26" s="6" t="s">
         <v>43</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="27" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
@@ -1162,13 +1173,13 @@
         <v>40</v>
       </c>
       <c r="C27" s="6" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D27" s="6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E27" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="28" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
@@ -1179,7 +1190,7 @@
       <c r="C28" s="6"/>
       <c r="D28" s="6"/>
       <c r="E28" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="29" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
@@ -1190,7 +1201,7 @@
       <c r="C29" s="6"/>
       <c r="D29" s="6"/>
       <c r="E29" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="30" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
@@ -1205,7 +1216,7 @@
         <v>32</v>
       </c>
       <c r="E30" s="3" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
     </row>
     <row r="31" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
@@ -1222,10 +1233,10 @@
         <v>7</v>
       </c>
       <c r="E31" s="3" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="F31" s="23" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="32" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
@@ -1246,23 +1257,23 @@
       </c>
       <c r="C33" s="6"/>
       <c r="D33" s="6"/>
-      <c r="E33" s="3" t="s">
-        <v>46</v>
+      <c r="E33" s="24" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="34" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A34" s="13"/>
       <c r="B34" s="6" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C34" s="6" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D34" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="E34" s="3" t="s">
-        <v>46</v>
+      <c r="E34" s="24" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="35" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.25">
@@ -1272,8 +1283,8 @@
       </c>
       <c r="C35" s="10"/>
       <c r="D35" s="10"/>
-      <c r="E35" s="3" t="s">
-        <v>46</v>
+      <c r="E35" s="24" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
